--- a/data/Preparation/clean/duplicados_clean.xlsx
+++ b/data/Preparation/clean/duplicados_clean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">duplicacado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELSA ANTONIO MOZANGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -384,40 +375,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
